--- a/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
+++ b/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_produtos\itabuna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69FB3F-544D-4E17-8E33-F2C451A16E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24554D2-9864-4330-AAEF-8142B78778AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feijao_itabuna" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2398,12 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
+      <c r="A215" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B215" s="6">
+        <v>32.99</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>

--- a/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
+++ b/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24554D2-9864-4330-AAEF-8142B78778AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB276520-F887-4306-98B5-34198943B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feijao_itabuna" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>ano</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>31-09-2022</t>
+  </si>
+  <si>
+    <t>31-11-2022</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2406,7 +2409,12 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
+      <c r="A216" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" s="6">
+        <v>31.41</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>

--- a/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
+++ b/datasets_cestas/datasets_produtos/itabuna/feijao_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\datasets_produtos\itabuna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\datasets_cestas\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB276520-F887-4306-98B5-34198943B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508DA41-1E35-418D-9A93-989459DC34C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,13 +347,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -362,7 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,16 +680,16 @@
   <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2337,7 +2334,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="1">
@@ -2380,7 +2377,7 @@
       <c r="A212" s="3">
         <v>44773</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="5">
         <v>39.020000000000003</v>
       </c>
     </row>
@@ -2388,7 +2385,7 @@
       <c r="A213" s="3">
         <v>44804</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="5">
         <v>34.020000000000003</v>
       </c>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="A214" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="5">
         <v>34.56</v>
       </c>
     </row>
@@ -2404,7 +2401,7 @@
       <c r="A215" s="3">
         <v>44865</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="5">
         <v>32.99</v>
       </c>
     </row>
@@ -2412,12 +2409,17 @@
       <c r="A216" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="5">
         <v>31.41</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
+      <c r="A217" s="3">
+        <v>44926</v>
+      </c>
+      <c r="B217" s="5">
+        <v>34.880000000000003</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
